--- a/inst/app/www/Archivos de referencia/Ejemplo_platemap_parametros.xlsx
+++ b/inst/app/www/Archivos de referencia/Ejemplo_platemap_parametros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c47a0ae7c39ccc42/Documents/SZ.app/www/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app\REPACT\BIOSZEN\inst\app\www\Archivos de referencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="285" documentId="13_ncr:1_{EED6D168-B98B-47C1-BB38-F35BDB82DBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{792EE4A5-412B-4E37-A620-2B71FFC55359}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F7EF89-5789-47CE-A397-2089ED17D265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -66,24 +66,6 @@
     <t>Y_Title</t>
   </si>
   <si>
-    <t>Parametro 1</t>
-  </si>
-  <si>
-    <t>Parametro 2</t>
-  </si>
-  <si>
-    <t>Parametro 3</t>
-  </si>
-  <si>
-    <t>Unidad de medicion 1</t>
-  </si>
-  <si>
-    <t>Unidad de medicion 2</t>
-  </si>
-  <si>
-    <t>Unidad de medicion 3</t>
-  </si>
-  <si>
     <t>Well</t>
   </si>
   <si>
@@ -370,6 +352,24 @@
   </si>
   <si>
     <t>Ampicillin 5µM</t>
+  </si>
+  <si>
+    <t>Parameter 1</t>
+  </si>
+  <si>
+    <t>Parameter 2</t>
+  </si>
+  <si>
+    <t>Parameter 3</t>
+  </si>
+  <si>
+    <t>Unit 1</t>
+  </si>
+  <si>
+    <t>Unit 2</t>
+  </si>
+  <si>
+    <t>Unit 3</t>
   </si>
 </sst>
 </file>
@@ -474,10 +474,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -769,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92:D97"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74:F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -783,7 +779,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -804,24 +800,24 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -833,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>0.32</v>
@@ -847,13 +843,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -865,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H3">
         <v>0.42</v>
@@ -879,13 +875,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -894,10 +890,10 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H4">
         <v>1.17</v>
@@ -911,13 +907,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -929,7 +925,7 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>0.72</v>
@@ -943,13 +939,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -958,10 +954,10 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H6">
         <v>0.76</v>
@@ -975,13 +971,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -990,10 +986,10 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H7">
         <v>0.32</v>
@@ -1007,13 +1003,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -1025,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H8">
         <v>0.11</v>
@@ -1039,13 +1035,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -1057,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H9">
         <v>0.98</v>
@@ -1071,13 +1067,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -1086,10 +1082,10 @@
         <v>3</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H10">
         <v>0.52</v>
@@ -1103,13 +1099,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -1121,7 +1117,7 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H11">
         <v>1.1200000000000001</v>
@@ -1135,13 +1131,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -1150,10 +1146,10 @@
         <v>5</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H12">
         <v>0.48</v>
@@ -1167,13 +1163,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -1182,10 +1178,10 @@
         <v>6</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H13">
         <v>1.1299999999999999</v>
@@ -1199,13 +1195,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -1217,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H14">
         <v>0.93</v>
@@ -1231,13 +1227,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D15">
         <v>9</v>
@@ -1249,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H15">
         <v>0.79</v>
@@ -1263,13 +1259,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D16">
         <v>9</v>
@@ -1278,10 +1274,10 @@
         <v>3</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H16">
         <v>0.48</v>
@@ -1295,13 +1291,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D17">
         <v>9</v>
@@ -1313,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H17">
         <v>0.84</v>
@@ -1327,13 +1323,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D18">
         <v>9</v>
@@ -1342,10 +1338,10 @@
         <v>5</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H18">
         <v>0.13</v>
@@ -1359,13 +1355,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D19">
         <v>9</v>
@@ -1374,10 +1370,10 @@
         <v>6</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H19">
         <v>0.3</v>
@@ -1391,13 +1387,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D20">
         <v>13</v>
@@ -1409,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H20">
         <v>0.13</v>
@@ -1423,13 +1419,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D21">
         <v>13</v>
@@ -1441,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H21">
         <v>1.01</v>
@@ -1455,13 +1451,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D22">
         <v>13</v>
@@ -1470,10 +1466,10 @@
         <v>3</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H22">
         <v>0.88</v>
@@ -1487,13 +1483,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D23">
         <v>13</v>
@@ -1505,7 +1501,7 @@
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H23">
         <v>0.12</v>
@@ -1519,13 +1515,13 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D24">
         <v>13</v>
@@ -1534,10 +1530,10 @@
         <v>5</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H24">
         <v>0.78</v>
@@ -1551,13 +1547,13 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D25">
         <v>13</v>
@@ -1566,10 +1562,10 @@
         <v>6</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1583,13 +1579,13 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1601,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H26">
         <v>0.89</v>
@@ -1615,13 +1611,13 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -1633,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H27">
         <v>0.45</v>
@@ -1647,13 +1643,13 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1662,10 +1658,10 @@
         <v>3</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H28">
         <v>0.31</v>
@@ -1679,13 +1675,13 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1697,7 +1693,7 @@
         <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H29">
         <v>0.95</v>
@@ -1711,13 +1707,13 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -1726,10 +1722,10 @@
         <v>5</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H30">
         <v>0.53</v>
@@ -1743,13 +1739,13 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -1758,10 +1754,10 @@
         <v>6</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G31" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H31">
         <v>0.93</v>
@@ -1775,13 +1771,13 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D32">
         <v>6</v>
@@ -1793,7 +1789,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H32">
         <v>0.15</v>
@@ -1807,13 +1803,13 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D33">
         <v>6</v>
@@ -1825,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H33">
         <v>1.18</v>
@@ -1839,13 +1835,13 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D34">
         <v>6</v>
@@ -1854,10 +1850,10 @@
         <v>3</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H34">
         <v>0.6</v>
@@ -1871,13 +1867,13 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D35">
         <v>6</v>
@@ -1889,7 +1885,7 @@
         <v>2</v>
       </c>
       <c r="G35" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H35">
         <v>0.16</v>
@@ -1903,13 +1899,13 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D36">
         <v>6</v>
@@ -1918,10 +1914,10 @@
         <v>5</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G36" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H36">
         <v>0.55000000000000004</v>
@@ -1935,13 +1931,13 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D37">
         <v>6</v>
@@ -1950,10 +1946,10 @@
         <v>6</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G37" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H37">
         <v>0.96</v>
@@ -1967,13 +1963,13 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D38">
         <v>10</v>
@@ -1985,7 +1981,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H38">
         <v>0.88</v>
@@ -1999,13 +1995,13 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D39">
         <v>10</v>
@@ -2017,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H39">
         <v>0.28999999999999998</v>
@@ -2031,13 +2027,13 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D40">
         <v>10</v>
@@ -2046,10 +2042,10 @@
         <v>3</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H40">
         <v>0.66</v>
@@ -2063,13 +2059,13 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D41">
         <v>10</v>
@@ -2081,7 +2077,7 @@
         <v>2</v>
       </c>
       <c r="G41" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H41">
         <v>0.48</v>
@@ -2095,13 +2091,13 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D42">
         <v>10</v>
@@ -2110,10 +2106,10 @@
         <v>5</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H42">
         <v>0.59</v>
@@ -2127,13 +2123,13 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D43">
         <v>10</v>
@@ -2142,10 +2138,10 @@
         <v>6</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G43" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H43">
         <v>0.98</v>
@@ -2159,13 +2155,13 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D44">
         <v>14</v>
@@ -2177,7 +2173,7 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H44">
         <v>0.28000000000000003</v>
@@ -2191,13 +2187,13 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D45">
         <v>14</v>
@@ -2209,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H45">
         <v>0.25</v>
@@ -2223,13 +2219,13 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D46">
         <v>14</v>
@@ -2238,10 +2234,10 @@
         <v>3</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H46">
         <v>0.12</v>
@@ -2255,13 +2251,13 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D47">
         <v>14</v>
@@ -2273,7 +2269,7 @@
         <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H47">
         <v>0.65</v>
@@ -2287,13 +2283,13 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D48">
         <v>14</v>
@@ -2302,10 +2298,10 @@
         <v>5</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G48" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H48">
         <v>0.95</v>
@@ -2319,13 +2315,13 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D49">
         <v>14</v>
@@ -2334,10 +2330,10 @@
         <v>6</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G49" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H49">
         <v>0.19</v>
@@ -2351,13 +2347,13 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -2369,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H50">
         <v>0.35</v>
@@ -2383,13 +2379,13 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -2401,7 +2397,7 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H51">
         <v>0.56999999999999995</v>
@@ -2415,13 +2411,13 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -2430,10 +2426,10 @@
         <v>3</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H52">
         <v>0.46</v>
@@ -2447,13 +2443,13 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D53">
         <v>3</v>
@@ -2465,7 +2461,7 @@
         <v>2</v>
       </c>
       <c r="G53" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H53">
         <v>0.34</v>
@@ -2479,13 +2475,13 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -2494,10 +2490,10 @@
         <v>5</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G54" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H54">
         <v>0.91</v>
@@ -2511,13 +2507,13 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -2526,10 +2522,10 @@
         <v>6</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G55" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H55">
         <v>0.23</v>
@@ -2543,13 +2539,13 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D56">
         <v>7</v>
@@ -2561,7 +2557,7 @@
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H56">
         <v>0.59</v>
@@ -2575,13 +2571,13 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D57">
         <v>7</v>
@@ -2593,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H57">
         <v>0.23</v>
@@ -2607,13 +2603,13 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D58">
         <v>7</v>
@@ -2622,10 +2618,10 @@
         <v>3</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H58">
         <v>0.26</v>
@@ -2639,13 +2635,13 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D59">
         <v>7</v>
@@ -2657,7 +2653,7 @@
         <v>2</v>
       </c>
       <c r="G59" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H59">
         <v>0.34</v>
@@ -2671,13 +2667,13 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D60">
         <v>7</v>
@@ -2686,10 +2682,10 @@
         <v>5</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H60">
         <v>0.54</v>
@@ -2703,13 +2699,13 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D61">
         <v>7</v>
@@ -2718,10 +2714,10 @@
         <v>6</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G61" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H61">
         <v>0.53</v>
@@ -2735,13 +2731,13 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D62">
         <v>11</v>
@@ -2753,7 +2749,7 @@
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H62">
         <v>0.17</v>
@@ -2767,13 +2763,13 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D63">
         <v>11</v>
@@ -2785,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H63">
         <v>0.69</v>
@@ -2799,13 +2795,13 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D64">
         <v>11</v>
@@ -2814,10 +2810,10 @@
         <v>3</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H64">
         <v>0.2</v>
@@ -2831,13 +2827,13 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D65">
         <v>11</v>
@@ -2849,7 +2845,7 @@
         <v>2</v>
       </c>
       <c r="G65" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H65">
         <v>1.06</v>
@@ -2863,13 +2859,13 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D66">
         <v>11</v>
@@ -2878,10 +2874,10 @@
         <v>5</v>
       </c>
       <c r="F66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G66" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H66">
         <v>0.14000000000000001</v>
@@ -2895,13 +2891,13 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D67">
         <v>11</v>
@@ -2910,10 +2906,10 @@
         <v>6</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G67" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H67">
         <v>0.36</v>
@@ -2927,13 +2923,13 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D68">
         <v>15</v>
@@ -2945,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H68">
         <v>0.54</v>
@@ -2959,13 +2955,13 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D69">
         <v>15</v>
@@ -2977,7 +2973,7 @@
         <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H69">
         <v>1.1200000000000001</v>
@@ -2991,13 +2987,13 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D70">
         <v>15</v>
@@ -3006,10 +3002,10 @@
         <v>3</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G70" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H70">
         <v>0.51</v>
@@ -3023,13 +3019,13 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="C71" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D71">
         <v>15</v>
@@ -3041,7 +3037,7 @@
         <v>2</v>
       </c>
       <c r="G71" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H71">
         <v>0.81</v>
@@ -3055,13 +3051,13 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D72">
         <v>15</v>
@@ -3070,10 +3066,10 @@
         <v>5</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G72" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H72">
         <v>0.74</v>
@@ -3087,13 +3083,13 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="D73">
         <v>15</v>
@@ -3102,10 +3098,10 @@
         <v>6</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G73" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H73">
         <v>1.05</v>
@@ -3119,13 +3115,13 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -3137,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H74">
         <v>0.47</v>
@@ -3151,13 +3147,13 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="D75">
         <v>4</v>
@@ -3169,7 +3165,7 @@
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H75">
         <v>0.97</v>
@@ -3183,13 +3179,13 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="D76">
         <v>4</v>
@@ -3198,10 +3194,10 @@
         <v>3</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G76" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H76">
         <v>0.14000000000000001</v>
@@ -3215,13 +3211,13 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="D77">
         <v>4</v>
@@ -3233,7 +3229,7 @@
         <v>2</v>
       </c>
       <c r="G77" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H77">
         <v>0.78</v>
@@ -3247,13 +3243,13 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="D78">
         <v>4</v>
@@ -3262,10 +3258,10 @@
         <v>5</v>
       </c>
       <c r="F78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G78" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H78">
         <v>0.68</v>
@@ -3279,13 +3275,13 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="D79">
         <v>4</v>
@@ -3294,10 +3290,10 @@
         <v>6</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G79" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H79">
         <v>0.5</v>
@@ -3311,13 +3307,13 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D80">
         <v>8</v>
@@ -3329,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H80">
         <v>0.96</v>
@@ -3343,13 +3339,13 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D81">
         <v>8</v>
@@ -3361,7 +3357,7 @@
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H81">
         <v>0.15</v>
@@ -3375,13 +3371,13 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D82">
         <v>8</v>
@@ -3390,10 +3386,10 @@
         <v>3</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G82" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H82">
         <v>0.24</v>
@@ -3407,13 +3403,13 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D83">
         <v>8</v>
@@ -3425,7 +3421,7 @@
         <v>2</v>
       </c>
       <c r="G83" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H83">
         <v>0.42</v>
@@ -3439,13 +3435,13 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D84">
         <v>8</v>
@@ -3454,10 +3450,10 @@
         <v>5</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G84" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H84">
         <v>1.08</v>
@@ -3471,13 +3467,13 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D85">
         <v>8</v>
@@ -3486,10 +3482,10 @@
         <v>6</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G85" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H85">
         <v>0.42</v>
@@ -3503,13 +3499,13 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D86">
         <v>12</v>
@@ -3521,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H86">
         <v>0.79</v>
@@ -3535,13 +3531,13 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D87">
         <v>12</v>
@@ -3553,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H87">
         <v>0.34</v>
@@ -3567,13 +3563,13 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A88" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D88">
         <v>12</v>
@@ -3582,10 +3578,10 @@
         <v>3</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G88" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H88">
         <v>0.63</v>
@@ -3599,13 +3595,13 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A89" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D89">
         <v>12</v>
@@ -3617,7 +3613,7 @@
         <v>2</v>
       </c>
       <c r="G89" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H89">
         <v>0.5</v>
@@ -3631,13 +3627,13 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A90" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D90">
         <v>12</v>
@@ -3646,10 +3642,10 @@
         <v>5</v>
       </c>
       <c r="F90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G90" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H90">
         <v>0.11</v>
@@ -3663,13 +3659,13 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A91" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D91">
         <v>12</v>
@@ -3678,10 +3674,10 @@
         <v>6</v>
       </c>
       <c r="F91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G91" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H91">
         <v>0.33</v>
@@ -3695,13 +3691,13 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A92" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D92">
         <v>16</v>
@@ -3713,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H92">
         <v>0.92</v>
@@ -3727,13 +3723,13 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D93">
         <v>16</v>
@@ -3745,7 +3741,7 @@
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H93">
         <v>0.22</v>
@@ -3759,13 +3755,13 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A94" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D94">
         <v>16</v>
@@ -3774,10 +3770,10 @@
         <v>3</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G94" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H94">
         <v>0.79</v>
@@ -3791,13 +3787,13 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D95">
         <v>16</v>
@@ -3809,7 +3805,7 @@
         <v>2</v>
       </c>
       <c r="G95" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H95">
         <v>1.1499999999999999</v>
@@ -3823,13 +3819,13 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D96">
         <v>16</v>
@@ -3838,10 +3834,10 @@
         <v>5</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G96" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H96">
         <v>0.92</v>
@@ -3855,13 +3851,13 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D97">
         <v>16</v>
@@ -3870,10 +3866,10 @@
         <v>6</v>
       </c>
       <c r="F97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G97" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H97">
         <v>0.9</v>
@@ -3895,8 +3891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3923,7 +3919,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="B2">
         <v>1.5</v>
@@ -3932,12 +3928,12 @@
         <v>0.5</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="B3">
         <v>1.4</v>
@@ -3946,12 +3942,12 @@
         <v>0.2</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -3960,7 +3956,7 @@
         <v>0.4</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
